--- a/meta/version-info.xlsx
+++ b/meta/version-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattwilkins/mrw_synced/R/Nonshiny Github/newGPLesson/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Edu/Lessons/guardianFrogs_sci/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BB7538-BD9A-294A-8D5A-92A19D1F7284}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F3E04D-2FE4-8B48-9CC9-F68B8F1EFEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="3420" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="versions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ver_num</t>
   </si>
@@ -47,15 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">Initial lesson build. </t>
-  </si>
-  <si>
-    <t>This is intended to be taught in a single day. Includes both classroom and a remote version with Nearpod.</t>
-  </si>
-  <si>
-    <t>0.1.1</t>
-  </si>
-  <si>
-    <t>Minor update to assets and styling.</t>
   </si>
   <si>
     <t>We use semantic versioning for lesson revision, just as software developers do.</t>
@@ -415,7 +406,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -465,27 +456,22 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="57">
+    <row r="2" spans="1:27" ht="19">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8">
+        <v>44653</v>
+      </c>
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="18"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:27" ht="19">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:27" ht="18">
       <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3" s="12"/>
       <c r="D3" s="19"/>
       <c r="E3" s="12"/>
     </row>
@@ -6514,31 +6500,31 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/meta/version-info.xlsx
+++ b/meta/version-info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ver_num</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>Tweaks to acknowledgments &amp; procedure</t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>Reorganized P2: Table 2 to match Table 1 order.</t>
+  </si>
+  <si>
+    <t>Wilkins found this error when teaching 7th grade class.</t>
   </si>
   <si>
     <t>We use semantic versioning for lesson revision, just as software developers do.</t>
@@ -488,11 +497,19 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44677.0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
@@ -7486,31 +7503,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/meta/version-info.xlsx
+++ b/meta/version-info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ver_num</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Wilkins found this error when teaching 7th grade class.</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>Tweaks to worksheets and expanded to G5-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erica Valerie suggested changes, all of which were incorporated. </t>
   </si>
   <si>
     <t>We use semantic versioning for lesson revision, just as software developers do.</t>
@@ -512,11 +521,19 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44707.0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
@@ -7503,31 +7520,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
